--- a/exemplos/exemplo_preenchido.xlsx
+++ b/exemplos/exemplo_preenchido.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/455f49c1690e736c/LabMap/Template Builder/template-builder-rep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/455f49c1690e736c/LabMap/Template Builder/template-builder-rep/exemplos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{AD72C68D-DBB6-4700-988B-BF795607DDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1721C968-C883-4289-AEED-F5341A95A4FC}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{AD72C68D-DBB6-4700-988B-BF795607DDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F96CC59-AA74-421F-908D-1B5069A9B02D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39DB0BA3-A8DA-4AEB-BAE3-705432CA3187}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="285">
   <si>
     <t>Ponto</t>
   </si>
@@ -1261,6 +1261,18 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1560,9 +1572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D9D4EB-5A47-49AB-B5D1-1F9611207D2D}">
   <dimension ref="A1:AG87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B96" sqref="B96"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6032,9 +6044,6 @@
       <c r="M81" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="P81" s="18" t="s">
-        <v>209</v>
-      </c>
       <c r="S81" s="36" t="s">
         <v>247</v>
       </c>
@@ -6287,8 +6296,8 @@
       <c r="I87" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="J87" s="18" t="s">
-        <v>201</v>
+      <c r="J87" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="K87" s="30">
         <v>0</v>
@@ -6327,7 +6336,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira &quot;Baixo&quot;, &quot;Médio&quot; ou &quot;Alto&quot; (sem aspas). Deixe em branco caso seja um ponto de controle." sqref="P2:P1048576" xr:uid="{FC217554-AFF6-48C6-A491-08728510E3B7}">
       <formula1>"Baixo,Médio,Alto"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira &quot;Sim&quot; ou &quot;Não&quot; (sem aspas)." sqref="J2:J1048576 L2:M1048576 O2:P1048576" xr:uid="{E3BA6822-2E06-43C1-BE98-1D7D927BE900}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira &quot;Sim&quot; ou &quot;Não&quot; (sem aspas)." sqref="O2:P1048576 L2:M1048576 J88:J1048576 J2:J86" xr:uid="{E3BA6822-2E06-43C1-BE98-1D7D927BE900}">
       <formula1>"Sim,Não"</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira uma data válida (dd/mm/aaaa)." sqref="H2:H1048576" xr:uid="{501F9DB8-7366-4BE4-BE7D-6D9EC076FB37}">
@@ -6356,6 +6365,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">

--- a/exemplos/exemplo_preenchido.xlsx
+++ b/exemplos/exemplo_preenchido.xlsx
@@ -1,23 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel Maccari\Meu Drive\Programming\template-builder\exemplos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA28FB48-27DB-4623-99B3-9AAEE82CAC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Geral" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Listas" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Geral" sheetId="1" r:id="rId1"/>
+    <sheet name="Listas" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="DataValidationRange">#REF!</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="285">
   <si>
     <t>Ponto</t>
   </si>
@@ -76,16 +94,16 @@
     <t>PTI-2001</t>
   </si>
   <si>
-    <t xml:space="preserve">Mapeamento Geológico I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WGS 84 / UTM zone 22S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estrada Geral do Oliveira, próximo ao entroncamento com uma estrada agrícola, no limite com a área 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Sutili, Gabriel Maccari, Vicente Wetter</t>
+    <t>Mapeamento Geológico I</t>
+  </si>
+  <si>
+    <t>WGS 84 / UTM zone 22S</t>
+  </si>
+  <si>
+    <t>Estrada Geral do Oliveira, próximo ao entroncamento com uma estrada agrícola, no limite com a área 1.</t>
+  </si>
+  <si>
+    <t>Ana Sutili, Gabriel Maccari, Vicente Wetter</t>
   </si>
   <si>
     <t>Não</t>
@@ -94,31 +112,31 @@
     <t>Sim</t>
   </si>
   <si>
-    <t xml:space="preserve">Corte de estrada</t>
+    <t>Corte de estrada</t>
   </si>
   <si>
     <t>Alto</t>
   </si>
   <si>
-    <t xml:space="preserve">Complexo Metamórfico Brusque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidade Metaexalativa / Unidade Metapelítica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220/30, 240/22</t>
+    <t>Complexo Metamórfico Brusque</t>
+  </si>
+  <si>
+    <t>Unidade Metaexalativa / Unidade Metapelítica</t>
+  </si>
+  <si>
+    <t>220/30, 240/22</t>
   </si>
   <si>
     <t>PTI-2002</t>
   </si>
   <si>
-    <t xml:space="preserve">À beira da Estrada Geral do Oliveira.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corte em barranco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidade Metapelítica</t>
+    <t>À beira da Estrada Geral do Oliveira.</t>
+  </si>
+  <si>
+    <t>Corte em barranco</t>
+  </si>
+  <si>
+    <t>Unidade Metapelítica</t>
   </si>
   <si>
     <t/>
@@ -127,7 +145,7 @@
     <t>PTI-2003</t>
   </si>
   <si>
-    <t xml:space="preserve">Ao lado de uma pequena ponte, entre duas propriedades rurais cercadas, próximo ao centro do Oliveira.</t>
+    <t>Ao lado de uma pequena ponte, entre duas propriedades rurais cercadas, próximo ao centro do Oliveira.</t>
   </si>
   <si>
     <t>Drenagem</t>
@@ -136,16 +154,16 @@
     <t>Médio</t>
   </si>
   <si>
-    <t xml:space="preserve">Unidade Metapelítica-arenosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220/35, 220/40</t>
+    <t>Unidade Metapelítica-arenosa</t>
+  </si>
+  <si>
+    <t>220/35, 220/40</t>
   </si>
   <si>
     <t>PTI-2004</t>
   </si>
   <si>
-    <t xml:space="preserve">Rio do Oliveira, próximo à ponte, nos fundos do Rancho Rural.</t>
+    <t>Rio do Oliveira, próximo à ponte, nos fundos do Rancho Rural.</t>
   </si>
   <si>
     <t>240/40</t>
@@ -154,10 +172,10 @@
     <t>PTI-2005</t>
   </si>
   <si>
-    <t xml:space="preserve">Próximo à igreja, passando o Rio Oliveira em direção a sul, em um corte de barranco acima da estrada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Sutili, Gabriel Maccari, Vicente Wetter, Manoela Bettarel</t>
+    <t>Próximo à igreja, passando o Rio Oliveira em direção a sul, em um corte de barranco acima da estrada.</t>
+  </si>
+  <si>
+    <t>Ana Sutili, Gabriel Maccari, Vicente Wetter, Manoela Bettarel</t>
   </si>
   <si>
     <t>200/40</t>
@@ -166,19 +184,19 @@
     <t>PTI-2006</t>
   </si>
   <si>
-    <t xml:space="preserve">Adjacente à drenagem, próximo a uma bifurcação da estrada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depósitos Cenozoicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depósitos de Canal Fluvial</t>
+    <t>Adjacente à drenagem, próximo a uma bifurcação da estrada</t>
+  </si>
+  <si>
+    <t>Depósitos Cenozoicos</t>
+  </si>
+  <si>
+    <t>Depósitos de Canal Fluvial</t>
   </si>
   <si>
     <t>PTI-2007</t>
   </si>
   <si>
-    <t xml:space="preserve">Ao longo da estrada, próximo à bifurcação com uma estrada agrícola que sobe o morro</t>
+    <t>Ao longo da estrada, próximo à bifurcação com uma estrada agrícola que sobe o morro</t>
   </si>
   <si>
     <t>170/55</t>
@@ -187,7 +205,7 @@
     <t>PTI-2008</t>
   </si>
   <si>
-    <t xml:space="preserve">Corte em barranco adjacente ao topo da estrada</t>
+    <t>Corte em barranco adjacente ao topo da estrada</t>
   </si>
   <si>
     <t>182/60</t>
@@ -196,52 +214,52 @@
     <t>PTI-2009</t>
   </si>
   <si>
-    <t xml:space="preserve">Corte em barranco adjacente à estrada, abaixo de uma área de silvicultura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidade Metapelítica / Unidade Metaexalativa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200/45, 140/50, 155/55</t>
+    <t>Corte em barranco adjacente à estrada, abaixo de uma área de silvicultura</t>
+  </si>
+  <si>
+    <t>Unidade Metapelítica / Unidade Metaexalativa</t>
+  </si>
+  <si>
+    <t>200/45, 140/50, 155/55</t>
   </si>
   <si>
     <t>PTI-2010</t>
   </si>
   <si>
-    <t xml:space="preserve">Próximo à drenagem</t>
+    <t>Próximo à drenagem</t>
   </si>
   <si>
     <t>PTI-2011</t>
   </si>
   <si>
-    <t xml:space="preserve">Corte em barranco em meio a uma área de silvicultura, próximo a uma residência</t>
-  </si>
-  <si>
-    <t xml:space="preserve">245/58, 255/55</t>
+    <t>Corte em barranco em meio a uma área de silvicultura, próximo a uma residência</t>
+  </si>
+  <si>
+    <t>245/58, 255/55</t>
   </si>
   <si>
     <t>PTI-2012</t>
   </si>
   <si>
-    <t xml:space="preserve">À beira da estrada, próximo à planície fluvial</t>
+    <t>À beira da estrada, próximo à planície fluvial</t>
   </si>
   <si>
     <t>PTI-2013</t>
   </si>
   <si>
-    <t xml:space="preserve">Próximo a um corte em barranco, em frente a uma porteira</t>
+    <t>Próximo a um corte em barranco, em frente a uma porteira</t>
   </si>
   <si>
     <t>PTI-2014</t>
   </si>
   <si>
-    <t xml:space="preserve">Estrada agrícola em meio a uma área de silvicultura</t>
+    <t>Estrada agrícola em meio a uma área de silvicultura</t>
   </si>
   <si>
     <t>PTI-2015</t>
   </si>
   <si>
-    <t xml:space="preserve">Corte em barranco adjacente a um açude. Acesso pela Hospedaria Rural (contato com D. Mara)</t>
+    <t>Corte em barranco adjacente a um açude. Acesso pela Hospedaria Rural (contato com D. Mara)</t>
   </si>
   <si>
     <t>190/43</t>
@@ -250,40 +268,40 @@
     <t>PTI-2016</t>
   </si>
   <si>
-    <t xml:space="preserve">Leito de drenagem ao longo de uma trilha de captação de água. Acesso pela Hospedaria Rural (contato com D. Mara).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidade Metaexalativa</t>
+    <t>Leito de drenagem ao longo de uma trilha de captação de água. Acesso pela Hospedaria Rural (contato com D. Mara).</t>
+  </si>
+  <si>
+    <t>Unidade Metaexalativa</t>
   </si>
   <si>
     <t>PTI-2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Na curva da estrada, abaixo de uma área de pastagem</t>
+    <t>Na curva da estrada, abaixo de uma área de pastagem</t>
   </si>
   <si>
     <t>PTI-2018</t>
   </si>
   <si>
-    <t xml:space="preserve">Próximo ao Rancho Rural, lado sul da estrada geral do Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depósitos de Planície de Inundação</t>
+    <t>Próximo ao Rancho Rural, lado sul da estrada geral do Oliveira</t>
+  </si>
+  <si>
+    <t>Depósitos de Planície de Inundação</t>
   </si>
   <si>
     <t>PTI-2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Margem do Rio Oliveira, ao lado da ponte</t>
+    <t>Margem do Rio Oliveira, ao lado da ponte</t>
   </si>
   <si>
     <t>PTI-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Leito/margem rochosa de rio à beira da estrada, próximo à igreja do Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Sutili, Gabriel Maccari, Vicente Wetter, Roberto Campos</t>
+    <t>Leito/margem rochosa de rio à beira da estrada, próximo à igreja do Oliveira</t>
+  </si>
+  <si>
+    <t>Ana Sutili, Gabriel Maccari, Vicente Wetter, Roberto Campos</t>
   </si>
   <si>
     <t>200/45</t>
@@ -295,43 +313,43 @@
     <t>PTI-2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Esquina próximo ao Atacado Sabor do Campo</t>
+    <t>Esquina próximo ao Atacado Sabor do Campo</t>
   </si>
   <si>
     <t>PTI-2022</t>
   </si>
   <si>
-    <t xml:space="preserve">Leito de drenagem ao lado de uma pequena ponte no fim da rua</t>
+    <t>Leito de drenagem ao lado de uma pequena ponte no fim da rua</t>
   </si>
   <si>
     <t>PTI-2023</t>
   </si>
   <si>
-    <t xml:space="preserve">Drenagem ao longo de uma estrada agrícola</t>
+    <t>Drenagem ao longo de uma estrada agrícola</t>
   </si>
   <si>
     <t>PTI-2024</t>
   </si>
   <si>
-    <t xml:space="preserve">Subida do morro ao longo de uma estrada agrícola</t>
+    <t>Subida do morro ao longo de uma estrada agrícola</t>
   </si>
   <si>
     <t>PTI-2025</t>
   </si>
   <si>
-    <t xml:space="preserve">Subida do morro ao longo de uma trilha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chão de estrada</t>
+    <t>Subida do morro ao longo de uma trilha</t>
+  </si>
+  <si>
+    <t>Chão de estrada</t>
   </si>
   <si>
     <t>PTI-2026</t>
   </si>
   <si>
-    <t xml:space="preserve">Primeira grande cachoeira ao longo do rio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidade Metacarbonática</t>
+    <t>Primeira grande cachoeira ao longo do rio</t>
+  </si>
+  <si>
+    <t>Unidade Metacarbonática</t>
   </si>
   <si>
     <t>225/53</t>
@@ -340,13 +358,13 @@
     <t>180/87</t>
   </si>
   <si>
-    <t xml:space="preserve">55-195, 35-300</t>
+    <t>55-195, 35-300</t>
   </si>
   <si>
     <t>PTI-2027</t>
   </si>
   <si>
-    <t xml:space="preserve">Cachoeira dupla acima do ponto anterior, ao longo do rio</t>
+    <t>Cachoeira dupla acima do ponto anterior, ao longo do rio</t>
   </si>
   <si>
     <t>230/30</t>
@@ -355,7 +373,7 @@
     <t>PTI-2028</t>
   </si>
   <si>
-    <t xml:space="preserve">Ao lado de uma ponte, adjacente à rua, em meio às pastagens</t>
+    <t>Ao lado de uma ponte, adjacente à rua, em meio às pastagens</t>
   </si>
   <si>
     <t>Baixo</t>
@@ -364,19 +382,19 @@
     <t>PTI-2029</t>
   </si>
   <si>
-    <t xml:space="preserve">Área edificada</t>
+    <t>Área edificada</t>
   </si>
   <si>
     <t>PTI-2030</t>
   </si>
   <si>
-    <t xml:space="preserve">Limite da planicie aluvial, base do morro</t>
+    <t>Limite da planicie aluvial, base do morro</t>
   </si>
   <si>
     <t>PTI-2031</t>
   </si>
   <si>
-    <t xml:space="preserve">Vala de drenagem ao longo da estrada, na base do morro</t>
+    <t>Vala de drenagem ao longo da estrada, na base do morro</t>
   </si>
   <si>
     <t>180/35</t>
@@ -385,31 +403,31 @@
     <t>PTI-2032</t>
   </si>
   <si>
-    <t xml:space="preserve">Ao longo da estrada</t>
+    <t>Ao longo da estrada</t>
   </si>
   <si>
     <t>PTI-2033</t>
   </si>
   <si>
-    <t xml:space="preserve">À beira da estrada, subindo o morro, em frente a uma cabana</t>
+    <t>À beira da estrada, subindo o morro, em frente a uma cabana</t>
   </si>
   <si>
     <t>PTI-2034</t>
   </si>
   <si>
-    <t xml:space="preserve">Terraplanagem para agricultura. Fim da estrada (?)</t>
+    <t>Terraplanagem para agricultura. Fim da estrada (?)</t>
   </si>
   <si>
     <t>PTI-2035</t>
   </si>
   <si>
-    <t xml:space="preserve">Córrego atravessando a estrada, logo após a bifurcação e a porteira</t>
+    <t>Córrego atravessando a estrada, logo após a bifurcação e a porteira</t>
   </si>
   <si>
     <t>PTI-2036</t>
   </si>
   <si>
-    <t xml:space="preserve">Ao longo da estrada, cerca de 250 m após a porteira</t>
+    <t>Ao longo da estrada, cerca de 250 m após a porteira</t>
   </si>
   <si>
     <t>PTI-2037</t>
@@ -421,7 +439,7 @@
     <t>PTI-2038</t>
   </si>
   <si>
-    <t xml:space="preserve">Córrego atravessando o gasoduto, próximo à estrada</t>
+    <t>Córrego atravessando o gasoduto, próximo à estrada</t>
   </si>
   <si>
     <t>PTI-2039</t>
@@ -433,13 +451,13 @@
     <t>PTI-2040</t>
   </si>
   <si>
-    <t xml:space="preserve">Estrada agricola nos fundos de uma casa</t>
+    <t>Estrada agricola nos fundos de uma casa</t>
   </si>
   <si>
     <t>PTI-2041</t>
   </si>
   <si>
-    <t xml:space="preserve">Topo do morro, ao longo do gasoduto</t>
+    <t>Topo do morro, ao longo do gasoduto</t>
   </si>
   <si>
     <t>PTI-2042</t>
@@ -448,13 +466,13 @@
     <t>PTI-2043</t>
   </si>
   <si>
-    <t xml:space="preserve">Curva em S no limite entre o morro e a planície fluvial</t>
+    <t>Curva em S no limite entre o morro e a planície fluvial</t>
   </si>
   <si>
     <t>PTI-2044</t>
   </si>
   <si>
-    <t xml:space="preserve">Chão de uma estrada que sobe para uma área de corte do barranco</t>
+    <t>Chão de uma estrada que sobe para uma área de corte do barranco</t>
   </si>
   <si>
     <t>190/35</t>
@@ -472,7 +490,7 @@
     <t>PTI-2048</t>
   </si>
   <si>
-    <t xml:space="preserve">Fundos de uma propriedade rural, próximo a um córrego</t>
+    <t>Fundos de uma propriedade rural, próximo a um córrego</t>
   </si>
   <si>
     <t>180/50</t>
@@ -481,34 +499,34 @@
     <t>PTI-2049</t>
   </si>
   <si>
-    <t xml:space="preserve">Corte em barranco à beira da estrada, no acesso a uma propriedade</t>
+    <t>Corte em barranco à beira da estrada, no acesso a uma propriedade</t>
   </si>
   <si>
     <t>PTI-2050</t>
   </si>
   <si>
-    <t xml:space="preserve">Curva ao longo da estrada</t>
+    <t>Curva ao longo da estrada</t>
   </si>
   <si>
     <t>PTI-2051</t>
   </si>
   <si>
-    <t xml:space="preserve">Ao longo da estrada, próximo a uma bifurcação</t>
+    <t>Ao longo da estrada, próximo a uma bifurcação</t>
   </si>
   <si>
     <t>PTI-2052</t>
   </si>
   <si>
-    <t xml:space="preserve">Início de vale côncavo entre colinas suaves convexas, em meio às pastagens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solo em pastagem</t>
+    <t>Início de vale côncavo entre colinas suaves convexas, em meio às pastagens</t>
+  </si>
+  <si>
+    <t>Solo em pastagem</t>
   </si>
   <si>
     <t>PTI-2053</t>
   </si>
   <si>
-    <t xml:space="preserve">Porteira de propriedade particular ao longo da estrada</t>
+    <t>Porteira de propriedade particular ao longo da estrada</t>
   </si>
   <si>
     <t>PTI-2054</t>
@@ -517,64 +535,64 @@
     <t>PTI-2055</t>
   </si>
   <si>
-    <t xml:space="preserve">Esquina em T</t>
+    <t>Esquina em T</t>
   </si>
   <si>
     <t>PTI-2056</t>
   </si>
   <si>
-    <t xml:space="preserve">Descida do morro, rumo ao açude</t>
+    <t>Descida do morro, rumo ao açude</t>
   </si>
   <si>
     <t>PTI-2057</t>
   </si>
   <si>
-    <t xml:space="preserve">Nascente escavada ao fim de uma pequena trilha</t>
+    <t>Nascente escavada ao fim de uma pequena trilha</t>
   </si>
   <si>
     <t>PTI-2058</t>
   </si>
   <si>
-    <t xml:space="preserve">Blocos/matacões rolados à beira da estrada, próximo à bifurcação</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Sutili, Gabriel Maccari, Vicente Wetter, Luana Florisbal</t>
+    <t>Blocos/matacões rolados à beira da estrada, próximo à bifurcação</t>
+  </si>
+  <si>
+    <t>Ana Sutili, Gabriel Maccari, Vicente Wetter, Luana Florisbal</t>
   </si>
   <si>
     <t>Blocos</t>
   </si>
   <si>
-    <t xml:space="preserve">Suíte Valsungana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granitoides Valsungana (fácies porfirítica quartzo-sienítica)</t>
+    <t>Suíte Valsungana</t>
+  </si>
+  <si>
+    <t>Granitoides Valsungana (fácies porfirítica quartzo-sienítica)</t>
   </si>
   <si>
     <t>PTI-2059</t>
   </si>
   <si>
-    <t xml:space="preserve">Ao longo de uma estrada agrícola, no chão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">320/30, 290/35</t>
+    <t>Ao longo de uma estrada agrícola, no chão</t>
+  </si>
+  <si>
+    <t>320/30, 290/35</t>
   </si>
   <si>
     <t>PTI-2060</t>
   </si>
   <si>
-    <t xml:space="preserve">Ao longo de uma estrada agrícola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300/35, 310/35</t>
+    <t>Ao longo de uma estrada agrícola</t>
+  </si>
+  <si>
+    <t>300/35, 310/35</t>
   </si>
   <si>
     <t>PTI-2061</t>
   </si>
   <si>
-    <t xml:space="preserve">Curva ao longo de uma estrada agrícola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidade Metarenosa / Unidade Metavulcânica Máfica-ultramáfica</t>
+    <t>Curva ao longo de uma estrada agrícola</t>
+  </si>
+  <si>
+    <t>Unidade Metarenosa / Unidade Metavulcânica Máfica-ultramáfica</t>
   </si>
   <si>
     <t>310/25</t>
@@ -583,7 +601,7 @@
     <t>PTI-2062</t>
   </si>
   <si>
-    <t xml:space="preserve">Unidade Metarenosa</t>
+    <t>Unidade Metarenosa</t>
   </si>
   <si>
     <t>PTI-2063</t>
@@ -595,10 +613,10 @@
     <t>PTI-2064</t>
   </si>
   <si>
-    <t xml:space="preserve">Passagem da trilha por um pequeno córrego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granitoides Valsungana (fácies porfirítica quartzo-sienítica) / Unidade Metarenosa</t>
+    <t>Passagem da trilha por um pequeno córrego</t>
+  </si>
+  <si>
+    <t>Granitoides Valsungana (fácies porfirítica quartzo-sienítica) / Unidade Metarenosa</t>
   </si>
   <si>
     <t>270/52</t>
@@ -607,34 +625,34 @@
     <t>PTI-2065</t>
   </si>
   <si>
-    <t xml:space="preserve">Ao longo da trilha</t>
+    <t>Ao longo da trilha</t>
   </si>
   <si>
     <t>PTI-2066</t>
   </si>
   <si>
-    <t xml:space="preserve">Leito de drenagem acima de uma cabana. Fim da trilha</t>
+    <t>Leito de drenagem acima de uma cabana. Fim da trilha</t>
   </si>
   <si>
     <t>PTI-2067</t>
   </si>
   <si>
-    <t xml:space="preserve">Margem rochosa de drenagem, próximo à ponte Augusto Montifeller</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255/30, 220/35</t>
+    <t>Margem rochosa de drenagem, próximo à ponte Augusto Montifeller</t>
+  </si>
+  <si>
+    <t>255/30, 220/35</t>
   </si>
   <si>
     <t>PTI-2068</t>
   </si>
   <si>
-    <t xml:space="preserve">À beira da estrada, próximo à intersecção</t>
+    <t>À beira da estrada, próximo à intersecção</t>
   </si>
   <si>
     <t>PTI-2069</t>
   </si>
   <si>
-    <t xml:space="preserve">Próximo ao Recanto do Neni</t>
+    <t>Próximo ao Recanto do Neni</t>
   </si>
   <si>
     <t>265/35</t>
@@ -649,13 +667,13 @@
     <t>PTI-2070</t>
   </si>
   <si>
-    <t xml:space="preserve">Trilha de captação de água da SAMAE, atravessando o rio, próximo à pequena barragem</t>
+    <t>Trilha de captação de água da SAMAE, atravessando o rio, próximo à pequena barragem</t>
   </si>
   <si>
     <t>PTI-2071</t>
   </si>
   <si>
-    <t xml:space="preserve">Cachoeira ao longo da trilha</t>
+    <t>Cachoeira ao longo da trilha</t>
   </si>
   <si>
     <t>315/55</t>
@@ -664,10 +682,10 @@
     <t>PTI-2072</t>
   </si>
   <si>
-    <t xml:space="preserve">Curva da estrada, proximo a um portão</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Sutili, Gabriel Maccari, Vicente Wetter, Breno Waichel</t>
+    <t>Curva da estrada, proximo a um portão</t>
+  </si>
+  <si>
+    <t>Ana Sutili, Gabriel Maccari, Vicente Wetter, Breno Waichel</t>
   </si>
   <si>
     <t>260/67</t>
@@ -676,16 +694,16 @@
     <t>PTI-2073</t>
   </si>
   <si>
-    <t xml:space="preserve">Ao longo de uma estrada agrícola recém-aberta</t>
+    <t>Ao longo de uma estrada agrícola recém-aberta</t>
   </si>
   <si>
     <t>PTI-2074</t>
   </si>
   <si>
-    <t xml:space="preserve">Ao longo de uma estrada agrícola recém-aberta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110/35, 140/28, 110/40</t>
+    <t>Ao longo de uma estrada agrícola recém-aberta.</t>
+  </si>
+  <si>
+    <t>110/35, 140/28, 110/40</t>
   </si>
   <si>
     <t>PTI-2075</t>
@@ -697,13 +715,13 @@
     <t>160/90</t>
   </si>
   <si>
-    <t xml:space="preserve">05-080, 08-083, 10-250, 08-230</t>
+    <t>05-080, 08-083, 10-250, 08-230</t>
   </si>
   <si>
     <t>PTI-2076</t>
   </si>
   <si>
-    <t xml:space="preserve">190/30, 204/27</t>
+    <t>190/30, 204/27</t>
   </si>
   <si>
     <t>24-218</t>
@@ -712,7 +730,7 @@
     <t>PTI-2077</t>
   </si>
   <si>
-    <t xml:space="preserve">Curva ao longo da estrada geral do Oliveira</t>
+    <t>Curva ao longo da estrada geral do Oliveira</t>
   </si>
   <si>
     <t>200/50</t>
@@ -727,7 +745,7 @@
     <t>PTI-2080</t>
   </si>
   <si>
-    <t xml:space="preserve">Pastagens adjacentes à estrada</t>
+    <t>Pastagens adjacentes à estrada</t>
   </si>
   <si>
     <t>PTI-2081</t>
@@ -742,7 +760,7 @@
     <t>PTI-2084</t>
   </si>
   <si>
-    <t xml:space="preserve">Passagem de estrada agrícola pelo rio, próximo ao limite entre a planície fluvial e a base
+    <t>Passagem de estrada agrícola pelo rio, próximo ao limite entre a planície fluvial e a base
 do morro. Acesso pela madeireira ao lado do campo de futebol</t>
   </si>
   <si>
@@ -752,13 +770,13 @@
     <t>PTI-2086</t>
   </si>
   <si>
-    <t xml:space="preserve">NÃO MEXA NESTA ABA SE VOCÊ NÃO SOUBER O QUE ESTÁ FAZENDO!</t>
+    <t>NÃO MEXA NESTA ABA SE VOCÊ NÃO SOUBER O QUE ESTÁ FAZENDO!</t>
   </si>
   <si>
     <t>Unidades</t>
   </si>
   <si>
-    <t xml:space="preserve">Unidades litoestratigráficas</t>
+    <t>Unidades litoestratigráficas</t>
   </si>
   <si>
     <t>Estruturas</t>
@@ -767,61 +785,61 @@
     <t>Foliacao_(Sn)</t>
   </si>
   <si>
-    <t xml:space="preserve">Grupo Serra Geral</t>
+    <t>Grupo Serra Geral</t>
   </si>
   <si>
     <t>Eixo_dobra_intrafolial_(Lb_intrafolial)</t>
   </si>
   <si>
-    <t xml:space="preserve">Suíte Zimbros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depósitos Coluvionares</t>
+    <t>Suíte Zimbros</t>
+  </si>
+  <si>
+    <t>Depósitos Coluvionares</t>
   </si>
   <si>
     <t>Plano_axial_crenulacao_(Pa_crenulacao)</t>
   </si>
   <si>
-    <t xml:space="preserve">Diques e Soleiras Básicas</t>
+    <t>Diques e Soleiras Básicas</t>
   </si>
   <si>
     <t>Eixo_crenulacao_(Lb_crenulacao)</t>
   </si>
   <si>
-    <t xml:space="preserve">Suíte São João Batista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rochas Hipabissais Ácidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complexo Granítico Estaleiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granito Campo Novo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complexo Camboriú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granitoides Valsungana (fácies porfirítica granítica)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granitoides Valsungana (fácies equigranular)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granito São João Batista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Granodiorito Estaleiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unidade Metavulcânica Máfica-ultramáfica</t>
+    <t>Suíte São João Batista</t>
+  </si>
+  <si>
+    <t>Rochas Hipabissais Ácidas</t>
+  </si>
+  <si>
+    <t>Complexo Granítico Estaleiro</t>
+  </si>
+  <si>
+    <t>Granito Campo Novo</t>
+  </si>
+  <si>
+    <t>Complexo Camboriú</t>
+  </si>
+  <si>
+    <t>Granitoides Valsungana (fácies porfirítica granítica)</t>
+  </si>
+  <si>
+    <t>Granitoides Valsungana (fácies equigranular)</t>
+  </si>
+  <si>
+    <t>Granito São João Batista</t>
+  </si>
+  <si>
+    <t>Granodiorito Estaleiro</t>
+  </si>
+  <si>
+    <t>Unidade Metavulcânica Máfica-ultramáfica</t>
   </si>
   <si>
     <t>Exemplos:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ortognaisses Anfibolíticos</t>
+    <t>Ortognaisses Anfibolíticos</t>
   </si>
   <si>
     <t>Acamadamento_sedimentar_(S0)</t>
@@ -878,17 +896,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -896,21 +914,21 @@
     <font>
       <b/>
       <i/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1039,149 +1057,149 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="4" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="4" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="6" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="7" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="6" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="7" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="5" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="6" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="6" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1192,295 +1210,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1683,43 +1421,46 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG87"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" style="1" width="10.28515625"/>
-    <col customWidth="1" min="2" max="2" style="2" width="23.7109375"/>
-    <col customWidth="1" min="3" max="3" style="3" width="23.28515625"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" style="4" width="9.5703125"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="4" width="10.5703125"/>
-    <col customWidth="1" min="6" max="6" style="4" width="8.42578125"/>
-    <col customWidth="1" min="7" max="7" style="5" width="21.7109375"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" style="6" width="10.7109375"/>
-    <col customWidth="1" min="9" max="9" style="7" width="53.5703125"/>
-    <col customWidth="1" min="10" max="10" style="8" width="18.28515625"/>
-    <col customWidth="1" min="11" max="11" style="9" width="21"/>
-    <col customWidth="1" min="12" max="12" style="3" width="14.85546875"/>
-    <col customWidth="1" min="13" max="13" style="8" width="13.7109375"/>
-    <col customWidth="1" min="14" max="14" style="10" width="20.7109375"/>
-    <col customWidth="1" min="15" max="15" style="3" width="7"/>
-    <col customWidth="1" min="16" max="16" style="8" width="22.28515625"/>
-    <col customWidth="1" min="17" max="17" style="11" width="29.7109375"/>
-    <col bestFit="1" customWidth="1" min="18" max="18" style="5" width="71.34375"/>
-    <col customWidth="1" min="19" max="19" style="12" width="30.7109375"/>
-    <col customWidth="1" min="20" max="32" style="13" width="30.7109375"/>
-    <col customWidth="1" min="33" max="33" style="14" width="30.7109375"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="53.5546875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="21" style="9" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="7" style="3" customWidth="1"/>
+    <col min="16" max="16" width="22.33203125" style="8" customWidth="1"/>
+    <col min="17" max="17" width="29.6640625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="71.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" style="12" customWidth="1"/>
+    <col min="20" max="32" width="30.6640625" style="13" customWidth="1"/>
+    <col min="33" max="33" width="30.6640625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1576,7 @@
         <v/>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1894,7 +1635,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -1953,7 +1694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -2012,7 +1753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -2071,7 +1812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -2130,7 +1871,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -2189,7 +1930,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -2248,7 +1989,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -2307,7 +2048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -2366,7 +2107,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -2410,7 +2151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -2469,7 +2210,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -2513,7 +2254,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -2572,7 +2313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -2616,7 +2357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
@@ -2675,7 +2416,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -2734,7 +2475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
@@ -2793,7 +2534,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
@@ -2852,7 +2593,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -2911,7 +2652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -2973,7 +2714,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -3017,7 +2758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -3076,7 +2817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>95</v>
       </c>
@@ -3135,7 +2876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -3179,7 +2920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>99</v>
       </c>
@@ -3232,7 +2973,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>102</v>
       </c>
@@ -3297,7 +3038,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -3356,7 +3097,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>111</v>
       </c>
@@ -3415,7 +3156,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>114</v>
       </c>
@@ -3459,7 +3200,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
@@ -3503,7 +3244,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>118</v>
       </c>
@@ -3562,7 +3303,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
@@ -3606,7 +3347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>123</v>
       </c>
@@ -3665,7 +3406,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>125</v>
       </c>
@@ -3709,7 +3450,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>127</v>
       </c>
@@ -3768,7 +3509,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>129</v>
       </c>
@@ -3827,7 +3568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>131</v>
       </c>
@@ -3886,7 +3627,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>133</v>
       </c>
@@ -3945,7 +3686,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>135</v>
       </c>
@@ -4004,7 +3745,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>137</v>
       </c>
@@ -4048,7 +3789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>139</v>
       </c>
@@ -4092,7 +3833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>141</v>
       </c>
@@ -4136,7 +3877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>142</v>
       </c>
@@ -4195,7 +3936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>144</v>
       </c>
@@ -4254,7 +3995,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>147</v>
       </c>
@@ -4313,7 +4054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>148</v>
       </c>
@@ -4357,7 +4098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>149</v>
       </c>
@@ -4401,7 +4142,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>150</v>
       </c>
@@ -4460,7 +4201,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>153</v>
       </c>
@@ -4519,7 +4260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>155</v>
       </c>
@@ -4563,7 +4304,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>157</v>
       </c>
@@ -4607,7 +4348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4660,7 +4401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>162</v>
       </c>
@@ -4704,7 +4445,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>164</v>
       </c>
@@ -4748,7 +4489,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>165</v>
       </c>
@@ -4792,7 +4533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>167</v>
       </c>
@@ -4836,7 +4577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>169</v>
       </c>
@@ -4880,7 +4621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>171</v>
       </c>
@@ -4939,7 +4680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>177</v>
       </c>
@@ -4998,7 +4739,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>180</v>
       </c>
@@ -5057,7 +4798,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>183</v>
       </c>
@@ -5116,7 +4857,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>187</v>
       </c>
@@ -5175,7 +4916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>189</v>
       </c>
@@ -5234,7 +4975,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>191</v>
       </c>
@@ -5293,7 +5034,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>195</v>
       </c>
@@ -5337,7 +5078,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>197</v>
       </c>
@@ -5390,7 +5131,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>199</v>
       </c>
@@ -5449,7 +5190,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>202</v>
       </c>
@@ -5508,7 +5249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>204</v>
       </c>
@@ -5573,7 +5314,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>209</v>
       </c>
@@ -5632,7 +5373,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>211</v>
       </c>
@@ -5691,7 +5432,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>214</v>
       </c>
@@ -5750,7 +5491,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>218</v>
       </c>
@@ -5794,7 +5535,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>220</v>
       </c>
@@ -5853,7 +5594,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>223</v>
       </c>
@@ -5918,7 +5659,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>227</v>
       </c>
@@ -5980,7 +5721,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>230</v>
       </c>
@@ -6039,7 +5780,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>233</v>
       </c>
@@ -6080,7 +5821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>234</v>
       </c>
@@ -6121,7 +5862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>235</v>
       </c>
@@ -6165,7 +5906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>237</v>
       </c>
@@ -6206,7 +5947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>238</v>
       </c>
@@ -6247,7 +5988,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>239</v>
       </c>
@@ -6288,7 +6029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>240</v>
       </c>
@@ -6347,7 +6088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>242</v>
       </c>
@@ -6388,7 +6129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>243</v>
       </c>
@@ -6445,90 +6186,58 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="1" insertHyperlinks="1" insertRows="0" pivotTables="1" selectLockedCells="0" selectUnlockedCells="0" sheet="0" sort="0"/>
-  <dataValidations count="2" disablePrompts="0">
-    <dataValidation sqref="Q2:Q1048576" type="list" allowBlank="1" error="Insira uma unidade contida na lista da segunda aba." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-      <formula1>Listas!$B$5:$B$19</formula1>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0"/>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira &quot;Sim&quot; ou &quot;Não&quot; (sem aspas). Deixe em branco caso não saiba." sqref="O2:O1048576" xr:uid="{003D0072-0027-481C-A036-0052006F005A}">
+      <formula1>"Sim,Não"</formula1>
     </dataValidation>
-    <dataValidation sqref="R2:R1048576" type="list" allowBlank="1" error="Insira uma unidade litoestratigráfica contida na lista da segunda aba." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-      <formula1>Listas!$D$5:$D$37</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira &quot;Baixo&quot;, &quot;Médio&quot; ou &quot;Alto&quot; (sem aspas). Deixe em branco caso seja um ponto de controle." sqref="P2:P1048576" xr:uid="{00E20061-0012-483A-AEBF-0039007E000C}">
+      <formula1>"Baixo,Médio,Alto"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira &quot;Sim&quot; ou &quot;Não&quot; (sem aspas)." sqref="O2:P1048576 L2:M1048576 J88:J1048576 J2:J86" xr:uid="{004F00CF-00AE-4929-B101-009000DA0045}">
+      <formula1>"Sim,Não"</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira uma data válida (dd/mm/aaaa)." sqref="H2:H1048576" xr:uid="{00280004-000F-430E-9DC1-003D000A0059}">
+      <formula1>36526</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira uma altitude válida, em metros." sqref="F2:F1048576" xr:uid="{002400F0-00B9-4C90-819F-008D00CA00DE}">
+      <formula1>0</formula1>
+      <formula2>8849</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira uma coordenada UTM (northing) válida." sqref="E2:E1048576" xr:uid="{008E00A3-0028-415D-978A-00AF008B002F}">
+      <formula1>1099000</formula1>
+      <formula2>10000000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira uma coordenada UTM (easting) válida." sqref="D2:D1048576" xr:uid="{00C400D3-0049-48A5-B148-003600F100EA}">
+      <formula1>165000</formula1>
+      <formula2>835000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira a quantia de amostras coletadas. Insira zero caso não haja amostras." sqref="K2:K1048576" xr:uid="{00BB005A-00FE-4B9D-AFF1-009B00540072}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira &quot;Sim&quot; ou &quot;Não&quot; (sem aspas)." sqref="K2:K1048576" xr:uid="{007900B5-009F-4BFE-8C74-00B90040006E}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira &quot;Mapeamento Geológico I&quot; ou &quot;Mapeamento Geológico II&quot;." sqref="B2:B1048576" xr:uid="{00990085-0073-4A83-B013-004F00F50048}">
+      <formula1>"Mapeamento Geológico I,Mapeamento Geológico II"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10" disablePrompts="0">
-        <x14:dataValidation xr:uid="{003D0072-0027-481C-A036-0052006F005A}" type="list" allowBlank="1" error="Insira &quot;Sim&quot; ou &quot;Não&quot; (sem aspas). Deixe em branco caso não saiba." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira uma unidade contida na lista da segunda aba." xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>"Sim,Não"</xm:f>
+            <xm:f>Listas!$B$5:$B$19</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O1048576</xm:sqref>
+          <xm:sqref>Q2:Q1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E20061-0012-483A-AEBF-0039007E000C}" type="list" allowBlank="1" error="Insira &quot;Baixo&quot;, &quot;Médio&quot; ou &quot;Alto&quot; (sem aspas). Deixe em branco caso seja um ponto de controle." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira uma unidade litoestratigráfica contida na lista da segunda aba." xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>"Baixo,Médio,Alto"</xm:f>
+            <xm:f>Listas!$D$5:$D$37</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004F00CF-00AE-4929-B101-009000DA0045}" type="list" allowBlank="1" error="Insira &quot;Sim&quot; ou &quot;Não&quot; (sem aspas)." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>"Sim,Não"</xm:f>
-          </x14:formula1>
-          <xm:sqref>O2:P1048576 L2:M1048576 J88:J1048576 J2:J86</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00280004-000F-430E-9DC1-003D000A0059}" type="date" allowBlank="1" error="Insira uma data válida (dd/mm/aaaa)." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="greaterThan" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>36526</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:H1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002400F0-00B9-4C90-819F-008D00CA00DE}" type="decimal" allowBlank="1" error="Insira uma altitude válida, em metros." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>0</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>8849</xm:f>
-          </x14:formula2>
-          <xm:sqref>F2:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008E00A3-0028-415D-978A-00AF008B002F}" type="decimal" allowBlank="1" error="Insira uma coordenada UTM (northing) válida." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>1099000</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>10000000</xm:f>
-          </x14:formula2>
-          <xm:sqref>E2:E1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C400D3-0049-48A5-B148-003600F100EA}" type="decimal" allowBlank="1" error="Insira uma coordenada UTM (easting) válida." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>165000</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>835000</xm:f>
-          </x14:formula2>
-          <xm:sqref>D2:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BB005A-00FE-4B9D-AFF1-009B00540072}" type="whole" allowBlank="1" error="Insira a quantia de amostras coletadas. Insira zero caso não haja amostras." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="greaterThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>0</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:K1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007900B5-009F-4BFE-8C74-00B90040006E}" type="whole" allowBlank="1" error="Insira &quot;Sim&quot; ou &quot;Não&quot; (sem aspas)." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="greaterThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>0</xm:f>
-          </x14:formula1>
-          <xm:sqref>K2:K1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00990085-0073-4A83-B013-004F00F50048}" type="list" allowBlank="1" error="Insira &quot;Mapeamento Geológico I&quot; ou &quot;Mapeamento Geológico II&quot;." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>"Mapeamento Geológico I,Mapeamento Geológico II"</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
+          <xm:sqref>R2:R1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6537,326 +6246,318 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr codeName="Planilha2">
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="B2:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="100" workbookViewId="0">
-      <selection activeCell="J24" activeCellId="0" sqref="J24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.5703125"/>
-    <col customWidth="1" min="2" max="2" width="32.42578125"/>
-    <col customWidth="1" min="3" max="3" width="3.42578125"/>
-    <col customWidth="1" min="4" max="4" width="53.85546875"/>
-    <col customWidth="1" min="5" max="5" width="3.28515625"/>
-    <col customWidth="1" min="6" max="6" width="34.5703125"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="53.88671875" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15"/>
-    <row r="2" ht="15">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" ht="15"/>
-    <row r="4" s="31" customFormat="1" ht="15">
-      <c r="B4" s="32" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+    </row>
+    <row r="4" spans="2:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="32" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="36" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="33" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="38" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="39" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="36" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="39" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="36" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="38" t="s">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="39" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="36" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="F9" s="39"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="38" t="s">
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="F10" s="39"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="38" t="s">
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="F11" s="39"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="38" t="s">
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="39"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="38"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="39" t="s">
+      <c r="F12" s="36"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="35"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="39"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="39" t="s">
+      <c r="F13" s="36"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="36"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="38"/>
-      <c r="D15" s="39" t="s">
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="35"/>
+      <c r="D15" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="38"/>
-      <c r="D16" s="39" t="s">
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="35"/>
+      <c r="D16" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="39"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="38"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="39" t="s">
+      <c r="F16" s="36"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="35"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="38"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="39" t="s">
+      <c r="F17" s="36"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="35"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="F18" s="39"/>
-    </row>
-    <row r="19" ht="15">
-      <c r="B19" s="40"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="39" t="s">
+      <c r="F18" s="36"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="37"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="40"/>
-    </row>
-    <row r="20">
-      <c r="C20" s="37"/>
-      <c r="D20" s="39" t="s">
+      <c r="F19" s="37"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="34"/>
+      <c r="D20" s="36" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21">
-      <c r="C21" s="37"/>
-      <c r="D21" s="39" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="34"/>
+      <c r="D21" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="38" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="22">
-      <c r="C22" s="37"/>
-      <c r="D22" s="39" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="34"/>
+      <c r="D22" s="36" t="s">
         <v>267</v>
       </c>
       <c r="F22" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="23">
-      <c r="C23" s="37"/>
-      <c r="D23" s="39"/>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="34"/>
+      <c r="D23" s="36"/>
       <c r="F23" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24">
-      <c r="C24" s="37"/>
-      <c r="D24" s="39" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="34"/>
+      <c r="D24" s="36" t="s">
         <v>28</v>
       </c>
       <c r="F24" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25">
-      <c r="C25" s="37"/>
-      <c r="D25" s="39" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="34"/>
+      <c r="D25" s="36" t="s">
         <v>60</v>
       </c>
       <c r="F25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26">
-      <c r="D26" s="39" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="36" t="s">
         <v>185</v>
       </c>
       <c r="F26" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="27">
-      <c r="D27" s="39" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="36" t="s">
         <v>193</v>
       </c>
       <c r="F27" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="28">
-      <c r="D28" s="39"/>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D28" s="36"/>
       <c r="F28" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" s="39"/>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D29" s="36"/>
       <c r="F29" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" s="39"/>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D30" s="36"/>
       <c r="F30" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" s="39"/>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D31" s="36"/>
       <c r="F31" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" s="39"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="36"/>
       <c r="F32" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" s="39"/>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D33" s="36"/>
       <c r="F33" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" s="39"/>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D34" s="36"/>
       <c r="F34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" s="39"/>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D35" s="36"/>
       <c r="F35" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" s="39"/>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D36" s="36"/>
       <c r="F36" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="37" ht="15">
-      <c r="D37" s="40"/>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D37" s="37"/>
       <c r="F37" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
         <v>284</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="0" selectUnlockedCells="0" sheet="0" sort="0"/>
+  <sheetProtection sort="0"/>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/exemplos/exemplo_preenchido.xlsx
+++ b/exemplos/exemplo_preenchido.xlsx
@@ -1,41 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel Maccari\Meu Drive\Programming\template-builder\exemplos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA28FB48-27DB-4623-99B3-9AAEE82CAC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Geral" sheetId="1" r:id="rId1"/>
-    <sheet name="Listas" sheetId="2" r:id="rId2"/>
+    <sheet name="Geral" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Listas" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="DataValidationRange">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>Ponto</t>
   </si>
@@ -94,16 +76,16 @@
     <t>PTI-2001</t>
   </si>
   <si>
-    <t>Mapeamento Geológico I</t>
-  </si>
-  <si>
-    <t>WGS 84 / UTM zone 22S</t>
-  </si>
-  <si>
-    <t>Estrada Geral do Oliveira, próximo ao entroncamento com uma estrada agrícola, no limite com a área 1.</t>
-  </si>
-  <si>
-    <t>Ana Sutili, Gabriel Maccari, Vicente Wetter</t>
+    <t xml:space="preserve">Mapeamento Geológico I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WGS 84 / UTM zone 22S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrada Geral do Oliveira, próximo ao entroncamento com uma estrada agrícola, no limite com a área 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Sutili, Gabriel Maccari, Vicente Wetter</t>
   </si>
   <si>
     <t>Não</t>
@@ -112,31 +94,31 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>Corte de estrada</t>
+    <t xml:space="preserve">Corte de estrada</t>
   </si>
   <si>
     <t>Alto</t>
   </si>
   <si>
-    <t>Complexo Metamórfico Brusque</t>
-  </si>
-  <si>
-    <t>Unidade Metaexalativa / Unidade Metapelítica</t>
-  </si>
-  <si>
-    <t>220/30, 240/22</t>
+    <t xml:space="preserve">Complexo Metamórfico Brusque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade Metaexalativa / Unidade Metapelítica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220/30, 240/22</t>
   </si>
   <si>
     <t>PTI-2002</t>
   </si>
   <si>
-    <t>À beira da Estrada Geral do Oliveira.</t>
-  </si>
-  <si>
-    <t>Corte em barranco</t>
-  </si>
-  <si>
-    <t>Unidade Metapelítica</t>
+    <t xml:space="preserve">À beira da Estrada Geral do Oliveira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corte em barranco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade Metapelítica</t>
   </si>
   <si>
     <t/>
@@ -145,7 +127,7 @@
     <t>PTI-2003</t>
   </si>
   <si>
-    <t>Ao lado de uma pequena ponte, entre duas propriedades rurais cercadas, próximo ao centro do Oliveira.</t>
+    <t xml:space="preserve">Ao lado de uma pequena ponte, entre duas propriedades rurais cercadas, próximo ao centro do Oliveira.</t>
   </si>
   <si>
     <t>Drenagem</t>
@@ -154,16 +136,16 @@
     <t>Médio</t>
   </si>
   <si>
-    <t>Unidade Metapelítica-arenosa</t>
-  </si>
-  <si>
-    <t>220/35, 220/40</t>
+    <t xml:space="preserve">Unidade Metapelítica-arenosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220/35, 220/40</t>
   </si>
   <si>
     <t>PTI-2004</t>
   </si>
   <si>
-    <t>Rio do Oliveira, próximo à ponte, nos fundos do Rancho Rural.</t>
+    <t xml:space="preserve">Rio do Oliveira, próximo à ponte, nos fundos do Rancho Rural.</t>
   </si>
   <si>
     <t>240/40</t>
@@ -172,10 +154,10 @@
     <t>PTI-2005</t>
   </si>
   <si>
-    <t>Próximo à igreja, passando o Rio Oliveira em direção a sul, em um corte de barranco acima da estrada.</t>
-  </si>
-  <si>
-    <t>Ana Sutili, Gabriel Maccari, Vicente Wetter, Manoela Bettarel</t>
+    <t xml:space="preserve">Próximo à igreja, passando o Rio Oliveira em direção a sul, em um corte de barranco acima da estrada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Sutili, Gabriel Maccari, Vicente Wetter, Manoela Bettarel</t>
   </si>
   <si>
     <t>200/40</t>
@@ -184,19 +166,19 @@
     <t>PTI-2006</t>
   </si>
   <si>
-    <t>Adjacente à drenagem, próximo a uma bifurcação da estrada</t>
-  </si>
-  <si>
-    <t>Depósitos Cenozoicos</t>
-  </si>
-  <si>
-    <t>Depósitos de Canal Fluvial</t>
+    <t xml:space="preserve">Adjacente à drenagem, próximo a uma bifurcação da estrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depósitos Cenozoicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depósitos de Canal Fluvial</t>
   </si>
   <si>
     <t>PTI-2007</t>
   </si>
   <si>
-    <t>Ao longo da estrada, próximo à bifurcação com uma estrada agrícola que sobe o morro</t>
+    <t xml:space="preserve">Ao longo da estrada, próximo à bifurcação com uma estrada agrícola que sobe o morro</t>
   </si>
   <si>
     <t>170/55</t>
@@ -205,7 +187,7 @@
     <t>PTI-2008</t>
   </si>
   <si>
-    <t>Corte em barranco adjacente ao topo da estrada</t>
+    <t xml:space="preserve">Corte em barranco adjacente ao topo da estrada</t>
   </si>
   <si>
     <t>182/60</t>
@@ -214,52 +196,52 @@
     <t>PTI-2009</t>
   </si>
   <si>
-    <t>Corte em barranco adjacente à estrada, abaixo de uma área de silvicultura</t>
-  </si>
-  <si>
-    <t>Unidade Metapelítica / Unidade Metaexalativa</t>
-  </si>
-  <si>
-    <t>200/45, 140/50, 155/55</t>
+    <t xml:space="preserve">Corte em barranco adjacente à estrada, abaixo de uma área de silvicultura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade Metapelítica / Unidade Metaexalativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200/45, 140/50, 155/55</t>
   </si>
   <si>
     <t>PTI-2010</t>
   </si>
   <si>
-    <t>Próximo à drenagem</t>
+    <t xml:space="preserve">Próximo à drenagem</t>
   </si>
   <si>
     <t>PTI-2011</t>
   </si>
   <si>
-    <t>Corte em barranco em meio a uma área de silvicultura, próximo a uma residência</t>
-  </si>
-  <si>
-    <t>245/58, 255/55</t>
+    <t xml:space="preserve">Corte em barranco em meio a uma área de silvicultura, próximo a uma residência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245/58, 255/55</t>
   </si>
   <si>
     <t>PTI-2012</t>
   </si>
   <si>
-    <t>À beira da estrada, próximo à planície fluvial</t>
+    <t xml:space="preserve">À beira da estrada, próximo à planície fluvial</t>
   </si>
   <si>
     <t>PTI-2013</t>
   </si>
   <si>
-    <t>Próximo a um corte em barranco, em frente a uma porteira</t>
+    <t xml:space="preserve">Próximo a um corte em barranco, em frente a uma porteira</t>
   </si>
   <si>
     <t>PTI-2014</t>
   </si>
   <si>
-    <t>Estrada agrícola em meio a uma área de silvicultura</t>
+    <t xml:space="preserve">Estrada agrícola em meio a uma área de silvicultura</t>
   </si>
   <si>
     <t>PTI-2015</t>
   </si>
   <si>
-    <t>Corte em barranco adjacente a um açude. Acesso pela Hospedaria Rural (contato com D. Mara)</t>
+    <t xml:space="preserve">Corte em barranco adjacente a um açude. Acesso pela Hospedaria Rural (contato com D. Mara)</t>
   </si>
   <si>
     <t>190/43</t>
@@ -268,40 +250,40 @@
     <t>PTI-2016</t>
   </si>
   <si>
-    <t>Leito de drenagem ao longo de uma trilha de captação de água. Acesso pela Hospedaria Rural (contato com D. Mara).</t>
-  </si>
-  <si>
-    <t>Unidade Metaexalativa</t>
+    <t xml:space="preserve">Leito de drenagem ao longo de uma trilha de captação de água. Acesso pela Hospedaria Rural (contato com D. Mara).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade Metaexalativa</t>
   </si>
   <si>
     <t>PTI-2017</t>
   </si>
   <si>
-    <t>Na curva da estrada, abaixo de uma área de pastagem</t>
+    <t xml:space="preserve">Na curva da estrada, abaixo de uma área de pastagem</t>
   </si>
   <si>
     <t>PTI-2018</t>
   </si>
   <si>
-    <t>Próximo ao Rancho Rural, lado sul da estrada geral do Oliveira</t>
-  </si>
-  <si>
-    <t>Depósitos de Planície de Inundação</t>
+    <t xml:space="preserve">Próximo ao Rancho Rural, lado sul da estrada geral do Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depósitos de Planície de Inundação</t>
   </si>
   <si>
     <t>PTI-2019</t>
   </si>
   <si>
-    <t>Margem do Rio Oliveira, ao lado da ponte</t>
+    <t xml:space="preserve">Margem do Rio Oliveira, ao lado da ponte</t>
   </si>
   <si>
     <t>PTI-2020</t>
   </si>
   <si>
-    <t>Leito/margem rochosa de rio à beira da estrada, próximo à igreja do Oliveira</t>
-  </si>
-  <si>
-    <t>Ana Sutili, Gabriel Maccari, Vicente Wetter, Roberto Campos</t>
+    <t xml:space="preserve">Leito/margem rochosa de rio à beira da estrada, próximo à igreja do Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Sutili, Gabriel Maccari, Vicente Wetter, Roberto Campos</t>
   </si>
   <si>
     <t>200/45</t>
@@ -313,43 +295,43 @@
     <t>PTI-2021</t>
   </si>
   <si>
-    <t>Esquina próximo ao Atacado Sabor do Campo</t>
+    <t xml:space="preserve">Esquina próximo ao Atacado Sabor do Campo</t>
   </si>
   <si>
     <t>PTI-2022</t>
   </si>
   <si>
-    <t>Leito de drenagem ao lado de uma pequena ponte no fim da rua</t>
+    <t xml:space="preserve">Leito de drenagem ao lado de uma pequena ponte no fim da rua</t>
   </si>
   <si>
     <t>PTI-2023</t>
   </si>
   <si>
-    <t>Drenagem ao longo de uma estrada agrícola</t>
+    <t xml:space="preserve">Drenagem ao longo de uma estrada agrícola</t>
   </si>
   <si>
     <t>PTI-2024</t>
   </si>
   <si>
-    <t>Subida do morro ao longo de uma estrada agrícola</t>
+    <t xml:space="preserve">Subida do morro ao longo de uma estrada agrícola</t>
   </si>
   <si>
     <t>PTI-2025</t>
   </si>
   <si>
-    <t>Subida do morro ao longo de uma trilha</t>
-  </si>
-  <si>
-    <t>Chão de estrada</t>
+    <t xml:space="preserve">Subida do morro ao longo de uma trilha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chão de estrada</t>
   </si>
   <si>
     <t>PTI-2026</t>
   </si>
   <si>
-    <t>Primeira grande cachoeira ao longo do rio</t>
-  </si>
-  <si>
-    <t>Unidade Metacarbonática</t>
+    <t xml:space="preserve">Primeira grande cachoeira ao longo do rio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade Metacarbonática</t>
   </si>
   <si>
     <t>225/53</t>
@@ -358,13 +340,13 @@
     <t>180/87</t>
   </si>
   <si>
-    <t>55-195, 35-300</t>
+    <t xml:space="preserve">55-195, 35-300</t>
   </si>
   <si>
     <t>PTI-2027</t>
   </si>
   <si>
-    <t>Cachoeira dupla acima do ponto anterior, ao longo do rio</t>
+    <t xml:space="preserve">Cachoeira dupla acima do ponto anterior, ao longo do rio</t>
   </si>
   <si>
     <t>230/30</t>
@@ -373,7 +355,7 @@
     <t>PTI-2028</t>
   </si>
   <si>
-    <t>Ao lado de uma ponte, adjacente à rua, em meio às pastagens</t>
+    <t xml:space="preserve">Ao lado de uma ponte, adjacente à rua, em meio às pastagens</t>
   </si>
   <si>
     <t>Baixo</t>
@@ -382,19 +364,19 @@
     <t>PTI-2029</t>
   </si>
   <si>
-    <t>Área edificada</t>
+    <t xml:space="preserve">Área edificada</t>
   </si>
   <si>
     <t>PTI-2030</t>
   </si>
   <si>
-    <t>Limite da planicie aluvial, base do morro</t>
+    <t xml:space="preserve">Limite da planicie aluvial, base do morro</t>
   </si>
   <si>
     <t>PTI-2031</t>
   </si>
   <si>
-    <t>Vala de drenagem ao longo da estrada, na base do morro</t>
+    <t xml:space="preserve">Vala de drenagem ao longo da estrada, na base do morro</t>
   </si>
   <si>
     <t>180/35</t>
@@ -403,31 +385,31 @@
     <t>PTI-2032</t>
   </si>
   <si>
-    <t>Ao longo da estrada</t>
+    <t xml:space="preserve">Ao longo da estrada</t>
   </si>
   <si>
     <t>PTI-2033</t>
   </si>
   <si>
-    <t>À beira da estrada, subindo o morro, em frente a uma cabana</t>
+    <t xml:space="preserve">À beira da estrada, subindo o morro, em frente a uma cabana</t>
   </si>
   <si>
     <t>PTI-2034</t>
   </si>
   <si>
-    <t>Terraplanagem para agricultura. Fim da estrada (?)</t>
+    <t xml:space="preserve">Terraplanagem para agricultura. Fim da estrada (?)</t>
   </si>
   <si>
     <t>PTI-2035</t>
   </si>
   <si>
-    <t>Córrego atravessando a estrada, logo após a bifurcação e a porteira</t>
+    <t xml:space="preserve">Córrego atravessando a estrada, logo após a bifurcação e a porteira</t>
   </si>
   <si>
     <t>PTI-2036</t>
   </si>
   <si>
-    <t>Ao longo da estrada, cerca de 250 m após a porteira</t>
+    <t xml:space="preserve">Ao longo da estrada, cerca de 250 m após a porteira</t>
   </si>
   <si>
     <t>PTI-2037</t>
@@ -439,7 +421,7 @@
     <t>PTI-2038</t>
   </si>
   <si>
-    <t>Córrego atravessando o gasoduto, próximo à estrada</t>
+    <t xml:space="preserve">Córrego atravessando o gasoduto, próximo à estrada</t>
   </si>
   <si>
     <t>PTI-2039</t>
@@ -451,13 +433,13 @@
     <t>PTI-2040</t>
   </si>
   <si>
-    <t>Estrada agricola nos fundos de uma casa</t>
+    <t xml:space="preserve">Estrada agricola nos fundos de uma casa</t>
   </si>
   <si>
     <t>PTI-2041</t>
   </si>
   <si>
-    <t>Topo do morro, ao longo do gasoduto</t>
+    <t xml:space="preserve">Topo do morro, ao longo do gasoduto</t>
   </si>
   <si>
     <t>PTI-2042</t>
@@ -466,13 +448,13 @@
     <t>PTI-2043</t>
   </si>
   <si>
-    <t>Curva em S no limite entre o morro e a planície fluvial</t>
+    <t xml:space="preserve">Curva em S no limite entre o morro e a planície fluvial</t>
   </si>
   <si>
     <t>PTI-2044</t>
   </si>
   <si>
-    <t>Chão de uma estrada que sobe para uma área de corte do barranco</t>
+    <t xml:space="preserve">Chão de uma estrada que sobe para uma área de corte do barranco</t>
   </si>
   <si>
     <t>190/35</t>
@@ -490,7 +472,7 @@
     <t>PTI-2048</t>
   </si>
   <si>
-    <t>Fundos de uma propriedade rural, próximo a um córrego</t>
+    <t xml:space="preserve">Fundos de uma propriedade rural, próximo a um córrego</t>
   </si>
   <si>
     <t>180/50</t>
@@ -499,34 +481,34 @@
     <t>PTI-2049</t>
   </si>
   <si>
-    <t>Corte em barranco à beira da estrada, no acesso a uma propriedade</t>
+    <t xml:space="preserve">Corte em barranco à beira da estrada, no acesso a uma propriedade</t>
   </si>
   <si>
     <t>PTI-2050</t>
   </si>
   <si>
-    <t>Curva ao longo da estrada</t>
+    <t xml:space="preserve">Curva ao longo da estrada</t>
   </si>
   <si>
     <t>PTI-2051</t>
   </si>
   <si>
-    <t>Ao longo da estrada, próximo a uma bifurcação</t>
+    <t xml:space="preserve">Ao longo da estrada, próximo a uma bifurcação</t>
   </si>
   <si>
     <t>PTI-2052</t>
   </si>
   <si>
-    <t>Início de vale côncavo entre colinas suaves convexas, em meio às pastagens</t>
-  </si>
-  <si>
-    <t>Solo em pastagem</t>
+    <t xml:space="preserve">Início de vale côncavo entre colinas suaves convexas, em meio às pastagens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solo em pastagem</t>
   </si>
   <si>
     <t>PTI-2053</t>
   </si>
   <si>
-    <t>Porteira de propriedade particular ao longo da estrada</t>
+    <t xml:space="preserve">Porteira de propriedade particular ao longo da estrada</t>
   </si>
   <si>
     <t>PTI-2054</t>
@@ -535,64 +517,64 @@
     <t>PTI-2055</t>
   </si>
   <si>
-    <t>Esquina em T</t>
+    <t xml:space="preserve">Esquina em T</t>
   </si>
   <si>
     <t>PTI-2056</t>
   </si>
   <si>
-    <t>Descida do morro, rumo ao açude</t>
+    <t xml:space="preserve">Descida do morro, rumo ao açude</t>
   </si>
   <si>
     <t>PTI-2057</t>
   </si>
   <si>
-    <t>Nascente escavada ao fim de uma pequena trilha</t>
+    <t xml:space="preserve">Nascente escavada ao fim de uma pequena trilha</t>
   </si>
   <si>
     <t>PTI-2058</t>
   </si>
   <si>
-    <t>Blocos/matacões rolados à beira da estrada, próximo à bifurcação</t>
-  </si>
-  <si>
-    <t>Ana Sutili, Gabriel Maccari, Vicente Wetter, Luana Florisbal</t>
+    <t xml:space="preserve">Blocos/matacões rolados à beira da estrada, próximo à bifurcação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Sutili, Gabriel Maccari, Vicente Wetter, Luana Florisbal</t>
   </si>
   <si>
     <t>Blocos</t>
   </si>
   <si>
-    <t>Suíte Valsungana</t>
-  </si>
-  <si>
-    <t>Granitoides Valsungana (fácies porfirítica quartzo-sienítica)</t>
+    <t xml:space="preserve">Suíte Valsungana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granitoides Valsungana (fácies porfirítica quartzo-sienítica)</t>
   </si>
   <si>
     <t>PTI-2059</t>
   </si>
   <si>
-    <t>Ao longo de uma estrada agrícola, no chão</t>
-  </si>
-  <si>
-    <t>320/30, 290/35</t>
+    <t xml:space="preserve">Ao longo de uma estrada agrícola, no chão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320/30, 290/35</t>
   </si>
   <si>
     <t>PTI-2060</t>
   </si>
   <si>
-    <t>Ao longo de uma estrada agrícola</t>
-  </si>
-  <si>
-    <t>300/35, 310/35</t>
+    <t xml:space="preserve">Ao longo de uma estrada agrícola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300/35, 310/35</t>
   </si>
   <si>
     <t>PTI-2061</t>
   </si>
   <si>
-    <t>Curva ao longo de uma estrada agrícola</t>
-  </si>
-  <si>
-    <t>Unidade Metarenosa / Unidade Metavulcânica Máfica-ultramáfica</t>
+    <t xml:space="preserve">Curva ao longo de uma estrada agrícola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade Metarenosa / Unidade Metavulcânica Máfica-ultramáfica</t>
   </si>
   <si>
     <t>310/25</t>
@@ -601,7 +583,7 @@
     <t>PTI-2062</t>
   </si>
   <si>
-    <t>Unidade Metarenosa</t>
+    <t xml:space="preserve">Unidade Metarenosa</t>
   </si>
   <si>
     <t>PTI-2063</t>
@@ -613,10 +595,10 @@
     <t>PTI-2064</t>
   </si>
   <si>
-    <t>Passagem da trilha por um pequeno córrego</t>
-  </si>
-  <si>
-    <t>Granitoides Valsungana (fácies porfirítica quartzo-sienítica) / Unidade Metarenosa</t>
+    <t xml:space="preserve">Passagem da trilha por um pequeno córrego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granitoides Valsungana (fácies porfirítica quartzo-sienítica) / Unidade Metarenosa</t>
   </si>
   <si>
     <t>270/52</t>
@@ -625,34 +607,34 @@
     <t>PTI-2065</t>
   </si>
   <si>
-    <t>Ao longo da trilha</t>
+    <t xml:space="preserve">Ao longo da trilha</t>
   </si>
   <si>
     <t>PTI-2066</t>
   </si>
   <si>
-    <t>Leito de drenagem acima de uma cabana. Fim da trilha</t>
+    <t xml:space="preserve">Leito de drenagem acima de uma cabana. Fim da trilha</t>
   </si>
   <si>
     <t>PTI-2067</t>
   </si>
   <si>
-    <t>Margem rochosa de drenagem, próximo à ponte Augusto Montifeller</t>
-  </si>
-  <si>
-    <t>255/30, 220/35</t>
+    <t xml:space="preserve">Margem rochosa de drenagem, próximo à ponte Augusto Montifeller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255/30, 220/35</t>
   </si>
   <si>
     <t>PTI-2068</t>
   </si>
   <si>
-    <t>À beira da estrada, próximo à intersecção</t>
+    <t xml:space="preserve">À beira da estrada, próximo à intersecção</t>
   </si>
   <si>
     <t>PTI-2069</t>
   </si>
   <si>
-    <t>Próximo ao Recanto do Neni</t>
+    <t xml:space="preserve">Próximo ao Recanto do Neni</t>
   </si>
   <si>
     <t>265/35</t>
@@ -667,13 +649,13 @@
     <t>PTI-2070</t>
   </si>
   <si>
-    <t>Trilha de captação de água da SAMAE, atravessando o rio, próximo à pequena barragem</t>
+    <t xml:space="preserve">Trilha de captação de água da SAMAE, atravessando o rio, próximo à pequena barragem</t>
   </si>
   <si>
     <t>PTI-2071</t>
   </si>
   <si>
-    <t>Cachoeira ao longo da trilha</t>
+    <t xml:space="preserve">Cachoeira ao longo da trilha</t>
   </si>
   <si>
     <t>315/55</t>
@@ -682,10 +664,10 @@
     <t>PTI-2072</t>
   </si>
   <si>
-    <t>Curva da estrada, proximo a um portão</t>
-  </si>
-  <si>
-    <t>Ana Sutili, Gabriel Maccari, Vicente Wetter, Breno Waichel</t>
+    <t xml:space="preserve">Curva da estrada, proximo a um portão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Sutili, Gabriel Maccari, Vicente Wetter, Breno Waichel</t>
   </si>
   <si>
     <t>260/67</t>
@@ -694,16 +676,16 @@
     <t>PTI-2073</t>
   </si>
   <si>
-    <t>Ao longo de uma estrada agrícola recém-aberta</t>
+    <t xml:space="preserve">Ao longo de uma estrada agrícola recém-aberta</t>
   </si>
   <si>
     <t>PTI-2074</t>
   </si>
   <si>
-    <t>Ao longo de uma estrada agrícola recém-aberta.</t>
-  </si>
-  <si>
-    <t>110/35, 140/28, 110/40</t>
+    <t xml:space="preserve">Ao longo de uma estrada agrícola recém-aberta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110/35, 140/28, 110/40</t>
   </si>
   <si>
     <t>PTI-2075</t>
@@ -715,13 +697,13 @@
     <t>160/90</t>
   </si>
   <si>
-    <t>05-080, 08-083, 10-250, 08-230</t>
+    <t xml:space="preserve">05-080, 08-083, 10-250, 08-230</t>
   </si>
   <si>
     <t>PTI-2076</t>
   </si>
   <si>
-    <t>190/30, 204/27</t>
+    <t xml:space="preserve">190/30, 204/27</t>
   </si>
   <si>
     <t>24-218</t>
@@ -730,7 +712,7 @@
     <t>PTI-2077</t>
   </si>
   <si>
-    <t>Curva ao longo da estrada geral do Oliveira</t>
+    <t xml:space="preserve">Curva ao longo da estrada geral do Oliveira</t>
   </si>
   <si>
     <t>200/50</t>
@@ -745,7 +727,7 @@
     <t>PTI-2080</t>
   </si>
   <si>
-    <t>Pastagens adjacentes à estrada</t>
+    <t xml:space="preserve">Pastagens adjacentes à estrada</t>
   </si>
   <si>
     <t>PTI-2081</t>
@@ -760,7 +742,7 @@
     <t>PTI-2084</t>
   </si>
   <si>
-    <t>Passagem de estrada agrícola pelo rio, próximo ao limite entre a planície fluvial e a base
+    <t xml:space="preserve">Passagem de estrada agrícola pelo rio, próximo ao limite entre a planície fluvial e a base
 do morro. Acesso pela madeireira ao lado do campo de futebol</t>
   </si>
   <si>
@@ -770,13 +752,13 @@
     <t>PTI-2086</t>
   </si>
   <si>
-    <t>NÃO MEXA NESTA ABA SE VOCÊ NÃO SOUBER O QUE ESTÁ FAZENDO!</t>
+    <t xml:space="preserve">NÃO MEXA NESTA ABA SE VOCÊ NÃO SOUBER O QUE ESTÁ FAZENDO!</t>
   </si>
   <si>
     <t>Unidades</t>
   </si>
   <si>
-    <t>Unidades litoestratigráficas</t>
+    <t xml:space="preserve">Unidades litoestratigráficas</t>
   </si>
   <si>
     <t>Estruturas</t>
@@ -785,61 +767,61 @@
     <t>Foliacao_(Sn)</t>
   </si>
   <si>
-    <t>Grupo Serra Geral</t>
+    <t xml:space="preserve">Grupo Serra Geral</t>
   </si>
   <si>
     <t>Eixo_dobra_intrafolial_(Lb_intrafolial)</t>
   </si>
   <si>
-    <t>Suíte Zimbros</t>
-  </si>
-  <si>
-    <t>Depósitos Coluvionares</t>
+    <t xml:space="preserve">Suíte Zimbros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depósitos Coluvionares</t>
   </si>
   <si>
     <t>Plano_axial_crenulacao_(Pa_crenulacao)</t>
   </si>
   <si>
-    <t>Diques e Soleiras Básicas</t>
+    <t xml:space="preserve">Diques e Soleiras Básicas</t>
   </si>
   <si>
     <t>Eixo_crenulacao_(Lb_crenulacao)</t>
   </si>
   <si>
-    <t>Suíte São João Batista</t>
-  </si>
-  <si>
-    <t>Rochas Hipabissais Ácidas</t>
-  </si>
-  <si>
-    <t>Complexo Granítico Estaleiro</t>
-  </si>
-  <si>
-    <t>Granito Campo Novo</t>
-  </si>
-  <si>
-    <t>Complexo Camboriú</t>
-  </si>
-  <si>
-    <t>Granitoides Valsungana (fácies porfirítica granítica)</t>
-  </si>
-  <si>
-    <t>Granitoides Valsungana (fácies equigranular)</t>
-  </si>
-  <si>
-    <t>Granito São João Batista</t>
-  </si>
-  <si>
-    <t>Granodiorito Estaleiro</t>
-  </si>
-  <si>
-    <t>Unidade Metavulcânica Máfica-ultramáfica</t>
+    <t xml:space="preserve">Suíte São João Batista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rochas Hipabissais Ácidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complexo Granítico Estaleiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granito Campo Novo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complexo Camboriú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granitoides Valsungana (fácies porfirítica granítica)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granitoides Valsungana (fácies equigranular)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granito São João Batista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granodiorito Estaleiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidade Metavulcânica Máfica-ultramáfica</t>
   </si>
   <si>
     <t>Exemplos:</t>
   </si>
   <si>
-    <t>Ortognaisses Anfibolíticos</t>
+    <t xml:space="preserve">Ortognaisses Anfibolíticos</t>
   </si>
   <si>
     <t>Acamadamento_sedimentar_(S0)</t>
@@ -896,17 +878,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -914,21 +896,21 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1057,149 +1039,149 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="42">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="6" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="7" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="6" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="7" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="6" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="6" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,15 +1192,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1421,46 +1683,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScale="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight"/>
+      <selection activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="53.5546875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="21" style="9" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="20.6640625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="7" style="3" customWidth="1"/>
-    <col min="16" max="16" width="22.33203125" style="8" customWidth="1"/>
-    <col min="17" max="17" width="29.6640625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="71.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.6640625" style="12" customWidth="1"/>
-    <col min="20" max="32" width="30.6640625" style="13" customWidth="1"/>
-    <col min="33" max="33" width="30.6640625" style="14" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" style="1" width="10.28515625"/>
+    <col customWidth="1" min="2" max="2" style="2" width="23.7109375"/>
+    <col customWidth="1" min="3" max="3" style="3" width="23.28515625"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="4" width="9.5703125"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="4" width="10.5703125"/>
+    <col customWidth="1" min="6" max="6" style="4" width="8.42578125"/>
+    <col customWidth="1" min="7" max="7" style="5" width="21.7109375"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" style="6" width="10.7109375"/>
+    <col customWidth="1" min="9" max="9" style="7" width="53.5703125"/>
+    <col customWidth="1" min="10" max="10" style="8" width="18.28515625"/>
+    <col customWidth="1" min="11" max="11" style="9" width="21"/>
+    <col customWidth="1" min="12" max="12" style="3" width="14.85546875"/>
+    <col customWidth="1" min="13" max="13" style="8" width="13.7109375"/>
+    <col customWidth="1" min="14" max="14" style="10" width="20.7109375"/>
+    <col customWidth="1" min="15" max="15" style="3" width="7"/>
+    <col customWidth="1" min="16" max="16" style="8" width="22.28515625"/>
+    <col customWidth="1" min="17" max="17" style="11" width="29.7109375"/>
+    <col bestFit="1" customWidth="1" min="18" max="18" style="5" width="71.34375"/>
+    <col customWidth="1" min="19" max="19" style="12" width="30.7109375"/>
+    <col customWidth="1" min="20" max="32" style="13" width="30.7109375"/>
+    <col customWidth="1" min="33" max="33" style="14" width="30.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" ht="15">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1835,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1635,7 +1894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -1694,7 +1953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -1753,7 +2012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1812,7 +2071,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -1871,7 +2130,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1930,7 +2189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -1989,7 +2248,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -2048,7 +2307,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>58</v>
       </c>
@@ -2107,7 +2366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -2151,7 +2410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>64</v>
       </c>
@@ -2210,7 +2469,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -2254,7 +2513,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
@@ -2313,7 +2572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>71</v>
       </c>
@@ -2357,7 +2616,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>73</v>
       </c>
@@ -2416,7 +2675,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -2475,7 +2734,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
@@ -2534,7 +2793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
@@ -2593,7 +2852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" s="1" t="s">
         <v>84</v>
       </c>
@@ -2652,7 +2911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -2714,7 +2973,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22">
       <c r="A22" s="1" t="s">
         <v>91</v>
       </c>
@@ -2758,7 +3017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -2817,7 +3076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24">
       <c r="A24" s="1" t="s">
         <v>95</v>
       </c>
@@ -2876,7 +3135,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -2920,7 +3179,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26">
       <c r="A26" s="1" t="s">
         <v>99</v>
       </c>
@@ -2973,7 +3232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27">
       <c r="A27" s="1" t="s">
         <v>102</v>
       </c>
@@ -3038,7 +3297,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -3097,7 +3356,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29">
       <c r="A29" s="1" t="s">
         <v>111</v>
       </c>
@@ -3156,7 +3415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30">
       <c r="A30" s="1" t="s">
         <v>114</v>
       </c>
@@ -3200,7 +3459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
@@ -3244,7 +3503,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32">
       <c r="A32" s="1" t="s">
         <v>118</v>
       </c>
@@ -3303,7 +3562,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33">
       <c r="A33" s="1" t="s">
         <v>121</v>
       </c>
@@ -3347,7 +3606,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34">
       <c r="A34" s="1" t="s">
         <v>123</v>
       </c>
@@ -3406,7 +3665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35">
       <c r="A35" s="1" t="s">
         <v>125</v>
       </c>
@@ -3450,7 +3709,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36">
       <c r="A36" s="1" t="s">
         <v>127</v>
       </c>
@@ -3509,7 +3768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37">
       <c r="A37" s="1" t="s">
         <v>129</v>
       </c>
@@ -3568,7 +3827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="A38" s="1" t="s">
         <v>131</v>
       </c>
@@ -3627,7 +3886,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39">
       <c r="A39" s="1" t="s">
         <v>133</v>
       </c>
@@ -3686,7 +3945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40">
       <c r="A40" s="1" t="s">
         <v>135</v>
       </c>
@@ -3745,7 +4004,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41">
       <c r="A41" s="1" t="s">
         <v>137</v>
       </c>
@@ -3789,7 +4048,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42">
       <c r="A42" s="1" t="s">
         <v>139</v>
       </c>
@@ -3833,7 +4092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43">
       <c r="A43" s="1" t="s">
         <v>141</v>
       </c>
@@ -3877,7 +4136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44">
       <c r="A44" s="1" t="s">
         <v>142</v>
       </c>
@@ -3936,7 +4195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45">
       <c r="A45" s="1" t="s">
         <v>144</v>
       </c>
@@ -3995,7 +4254,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46">
       <c r="A46" s="1" t="s">
         <v>147</v>
       </c>
@@ -4054,7 +4313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47">
       <c r="A47" s="1" t="s">
         <v>148</v>
       </c>
@@ -4098,7 +4357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48">
       <c r="A48" s="1" t="s">
         <v>149</v>
       </c>
@@ -4142,7 +4401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49">
       <c r="A49" s="1" t="s">
         <v>150</v>
       </c>
@@ -4201,7 +4460,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50">
       <c r="A50" s="1" t="s">
         <v>153</v>
       </c>
@@ -4260,7 +4519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51">
       <c r="A51" s="1" t="s">
         <v>155</v>
       </c>
@@ -4304,7 +4563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52">
       <c r="A52" s="1" t="s">
         <v>157</v>
       </c>
@@ -4348,7 +4607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53">
       <c r="A53" s="1" t="s">
         <v>159</v>
       </c>
@@ -4401,7 +4660,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54">
       <c r="A54" s="1" t="s">
         <v>162</v>
       </c>
@@ -4445,7 +4704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55">
       <c r="A55" s="1" t="s">
         <v>164</v>
       </c>
@@ -4489,7 +4748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56">
       <c r="A56" s="1" t="s">
         <v>165</v>
       </c>
@@ -4533,7 +4792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57">
       <c r="A57" s="1" t="s">
         <v>167</v>
       </c>
@@ -4577,7 +4836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58">
       <c r="A58" s="1" t="s">
         <v>169</v>
       </c>
@@ -4621,7 +4880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59">
       <c r="A59" s="1" t="s">
         <v>171</v>
       </c>
@@ -4680,7 +4939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60">
       <c r="A60" s="1" t="s">
         <v>177</v>
       </c>
@@ -4739,7 +4998,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61">
       <c r="A61" s="1" t="s">
         <v>180</v>
       </c>
@@ -4798,7 +5057,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62">
       <c r="A62" s="1" t="s">
         <v>183</v>
       </c>
@@ -4857,7 +5116,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63">
       <c r="A63" s="1" t="s">
         <v>187</v>
       </c>
@@ -4916,7 +5175,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64">
       <c r="A64" s="1" t="s">
         <v>189</v>
       </c>
@@ -4975,7 +5234,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65">
       <c r="A65" s="1" t="s">
         <v>191</v>
       </c>
@@ -5034,7 +5293,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66">
       <c r="A66" s="1" t="s">
         <v>195</v>
       </c>
@@ -5078,7 +5337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67">
       <c r="A67" s="1" t="s">
         <v>197</v>
       </c>
@@ -5131,7 +5390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68">
       <c r="A68" s="1" t="s">
         <v>199</v>
       </c>
@@ -5190,7 +5449,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69">
       <c r="A69" s="1" t="s">
         <v>202</v>
       </c>
@@ -5249,7 +5508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70">
       <c r="A70" s="1" t="s">
         <v>204</v>
       </c>
@@ -5314,7 +5573,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71">
       <c r="A71" s="1" t="s">
         <v>209</v>
       </c>
@@ -5373,7 +5632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72">
       <c r="A72" s="1" t="s">
         <v>211</v>
       </c>
@@ -5432,7 +5691,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73">
       <c r="A73" s="1" t="s">
         <v>214</v>
       </c>
@@ -5491,7 +5750,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74">
       <c r="A74" s="1" t="s">
         <v>218</v>
       </c>
@@ -5535,7 +5794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75">
       <c r="A75" s="1" t="s">
         <v>220</v>
       </c>
@@ -5594,7 +5853,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76">
       <c r="A76" s="1" t="s">
         <v>223</v>
       </c>
@@ -5659,7 +5918,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77">
       <c r="A77" s="1" t="s">
         <v>227</v>
       </c>
@@ -5721,7 +5980,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78">
       <c r="A78" s="1" t="s">
         <v>230</v>
       </c>
@@ -5780,7 +6039,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79">
       <c r="A79" s="1" t="s">
         <v>233</v>
       </c>
@@ -5821,7 +6080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80">
       <c r="A80" s="1" t="s">
         <v>234</v>
       </c>
@@ -5862,7 +6121,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81">
       <c r="A81" s="1" t="s">
         <v>235</v>
       </c>
@@ -5906,7 +6165,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82">
       <c r="A82" s="1" t="s">
         <v>237</v>
       </c>
@@ -5947,7 +6206,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83">
       <c r="A83" s="1" t="s">
         <v>238</v>
       </c>
@@ -5988,7 +6247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84">
       <c r="A84" s="1" t="s">
         <v>239</v>
       </c>
@@ -6029,7 +6288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85">
       <c r="A85" s="1" t="s">
         <v>240</v>
       </c>
@@ -6088,7 +6347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86">
       <c r="A86" s="1" t="s">
         <v>242</v>
       </c>
@@ -6129,7 +6388,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87">
       <c r="A87" s="1" t="s">
         <v>243</v>
       </c>
@@ -6186,58 +6445,90 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0"/>
-  <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira &quot;Sim&quot; ou &quot;Não&quot; (sem aspas). Deixe em branco caso não saiba." sqref="O2:O1048576" xr:uid="{003D0072-0027-481C-A036-0052006F005A}">
-      <formula1>"Sim,Não"</formula1>
+  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="1" insertHyperlinks="1" insertRows="0" pivotTables="1" selectLockedCells="0" selectUnlockedCells="0" sheet="0" sort="0"/>
+  <dataValidations count="2" disablePrompts="0">
+    <dataValidation sqref="Q2:Q1048576" type="list" allowBlank="1" error="Insira uma unidade contida na lista da segunda aba." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <formula1>Listas!$B$5:$B$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira &quot;Baixo&quot;, &quot;Médio&quot; ou &quot;Alto&quot; (sem aspas). Deixe em branco caso seja um ponto de controle." sqref="P2:P1048576" xr:uid="{00E20061-0012-483A-AEBF-0039007E000C}">
-      <formula1>"Baixo,Médio,Alto"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira &quot;Sim&quot; ou &quot;Não&quot; (sem aspas)." sqref="O2:P1048576 L2:M1048576 J88:J1048576 J2:J86" xr:uid="{004F00CF-00AE-4929-B101-009000DA0045}">
-      <formula1>"Sim,Não"</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira uma data válida (dd/mm/aaaa)." sqref="H2:H1048576" xr:uid="{00280004-000F-430E-9DC1-003D000A0059}">
-      <formula1>36526</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira uma altitude válida, em metros." sqref="F2:F1048576" xr:uid="{002400F0-00B9-4C90-819F-008D00CA00DE}">
-      <formula1>0</formula1>
-      <formula2>8849</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira uma coordenada UTM (northing) válida." sqref="E2:E1048576" xr:uid="{008E00A3-0028-415D-978A-00AF008B002F}">
-      <formula1>1099000</formula1>
-      <formula2>10000000</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira uma coordenada UTM (easting) válida." sqref="D2:D1048576" xr:uid="{00C400D3-0049-48A5-B148-003600F100EA}">
-      <formula1>165000</formula1>
-      <formula2>835000</formula2>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira a quantia de amostras coletadas. Insira zero caso não haja amostras." sqref="K2:K1048576" xr:uid="{00BB005A-00FE-4B9D-AFF1-009B00540072}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira &quot;Sim&quot; ou &quot;Não&quot; (sem aspas)." sqref="K2:K1048576" xr:uid="{007900B5-009F-4BFE-8C74-00B90040006E}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira &quot;Mapeamento Geológico I&quot; ou &quot;Mapeamento Geológico II&quot;." sqref="B2:B1048576" xr:uid="{00990085-0073-4A83-B013-004F00F50048}">
-      <formula1>"Mapeamento Geológico I,Mapeamento Geológico II"</formula1>
+    <dataValidation sqref="R2:R1048576" type="list" allowBlank="1" error="Insira uma unidade litoestratigráfica contida na lista da segunda aba." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <formula1>Listas!$D$5:$D$37</formula1>
     </dataValidation>
   </dataValidations>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira uma unidade contida na lista da segunda aba." xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10" disablePrompts="0">
+        <x14:dataValidation xr:uid="{003D0072-0027-481C-A036-0052006F005A}" type="list" allowBlank="1" error="Insira &quot;Sim&quot; ou &quot;Não&quot; (sem aspas). Deixe em branco caso não saiba." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>Listas!$B$5:$B$19</xm:f>
+            <xm:f>"Sim,Não"</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q1048576</xm:sqref>
+          <xm:sqref>O2:O1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dado inválido" error="Insira uma unidade litoestratigráfica contida na lista da segunda aba." xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation xr:uid="{00E20061-0012-483A-AEBF-0039007E000C}" type="list" allowBlank="1" error="Insira &quot;Baixo&quot;, &quot;Médio&quot; ou &quot;Alto&quot; (sem aspas). Deixe em branco caso seja um ponto de controle." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>Listas!$D$5:$D$37</xm:f>
+            <xm:f>"Baixo,Médio,Alto"</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R1048576</xm:sqref>
+          <xm:sqref>P2:P1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{004F00CF-00AE-4929-B101-009000DA0045}" type="list" allowBlank="1" error="Insira &quot;Sim&quot; ou &quot;Não&quot; (sem aspas)." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>"Sim,Não"</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:P1048576 L2:M1048576 J88:J1048576 J2:J86</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00280004-000F-430E-9DC1-003D000A0059}" type="date" allowBlank="1" error="Insira uma data válida (dd/mm/aaaa)." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="greaterThan" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>36526</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{002400F0-00B9-4C90-819F-008D00CA00DE}" type="decimal" allowBlank="1" error="Insira uma altitude válida, em metros." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>8849</xm:f>
+          </x14:formula2>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{008E00A3-0028-415D-978A-00AF008B002F}" type="decimal" allowBlank="1" error="Insira uma coordenada UTM (northing) válida." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>1099000</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>10000000</xm:f>
+          </x14:formula2>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00C400D3-0049-48A5-B148-003600F100EA}" type="decimal" allowBlank="1" error="Insira uma coordenada UTM (easting) válida." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>165000</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>835000</xm:f>
+          </x14:formula2>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00BB005A-00FE-4B9D-AFF1-009B00540072}" type="whole" allowBlank="1" error="Insira a quantia de amostras coletadas. Insira zero caso não haja amostras." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="greaterThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{007900B5-009F-4BFE-8C74-00B90040006E}" type="whole" allowBlank="1" error="Insira &quot;Sim&quot; ou &quot;Não&quot; (sem aspas)." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="greaterThanOrEqual" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>0</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00990085-0073-4A83-B013-004F00F50048}" type="list" allowBlank="1" error="Insira &quot;Mapeamento Geológico I&quot; ou &quot;Mapeamento Geológico II&quot;." errorStyle="stop" errorTitle="Dado inválido" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>"Mapeamento Geológico I,Mapeamento Geológico II"</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6246,318 +6537,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Planilha2"/>
-  <dimension ref="B2:F38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr codeName="Planilha2">
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" zoomScale="100" workbookViewId="0">
+      <selection activeCell="J24" activeCellId="0" sqref="J24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" customWidth="1"/>
-    <col min="4" max="4" width="53.88671875" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="3.5703125"/>
+    <col customWidth="1" min="2" max="2" width="32.42578125"/>
+    <col customWidth="1" min="3" max="3" width="3.42578125"/>
+    <col customWidth="1" min="4" max="4" width="53.85546875"/>
+    <col customWidth="1" min="5" max="5" width="3.28515625"/>
+    <col customWidth="1" min="6" max="6" width="34.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+    <row r="1" ht="15"/>
+    <row r="2" ht="15">
+      <c r="B2" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-    </row>
-    <row r="4" spans="2:6" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="29" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" ht="15"/>
+    <row r="4" s="31" customFormat="1" ht="15">
+      <c r="B4" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="35" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="33" t="s">
+    <row r="5">
+      <c r="B5" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="36" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="35" t="s">
+    <row r="6">
+      <c r="B6" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="39" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="35" t="s">
+    <row r="7">
+      <c r="B7" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="39" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="35" t="s">
+    <row r="8">
+      <c r="B8" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="36" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="39" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
+    <row r="9">
+      <c r="B9" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="F9" s="36"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="35" t="s">
+      <c r="F9" s="39"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="F10" s="36"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="35" t="s">
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="F11" s="36"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="35" t="s">
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="39" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="36"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="36" t="s">
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="38"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="F13" s="36"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="36" t="s">
+      <c r="F13" s="39"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="39"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="F14" s="36"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
-      <c r="D15" s="36" t="s">
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="38"/>
+      <c r="D15" s="39" t="s">
         <v>264</v>
       </c>
-      <c r="F15" s="36"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="35"/>
-      <c r="D16" s="36" t="s">
+      <c r="F15" s="39"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="38"/>
+      <c r="D16" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="36"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="36" t="s">
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="38"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="36"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="35"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="36" t="s">
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="38"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="F18" s="36"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="37"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="36" t="s">
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" ht="15">
+      <c r="B19" s="40"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="37"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="34"/>
-      <c r="D20" s="36" t="s">
+      <c r="F19" s="40"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="37"/>
+      <c r="D20" s="39" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="34"/>
-      <c r="D21" s="36" t="s">
+    <row r="21">
+      <c r="C21" s="37"/>
+      <c r="D21" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="F21" s="38" t="s">
+      <c r="F21" s="41" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="34"/>
-      <c r="D22" s="36" t="s">
+    <row r="22">
+      <c r="C22" s="37"/>
+      <c r="D22" s="39" t="s">
         <v>267</v>
       </c>
       <c r="F22" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="34"/>
-      <c r="D23" s="36"/>
+    <row r="23">
+      <c r="C23" s="37"/>
+      <c r="D23" s="39"/>
       <c r="F23" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="34"/>
-      <c r="D24" s="36" t="s">
+    <row r="24">
+      <c r="C24" s="37"/>
+      <c r="D24" s="39" t="s">
         <v>28</v>
       </c>
       <c r="F24" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="34"/>
-      <c r="D25" s="36" t="s">
+    <row r="25">
+      <c r="C25" s="37"/>
+      <c r="D25" s="39" t="s">
         <v>60</v>
       </c>
       <c r="F25" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D26" s="36" t="s">
+    <row r="26">
+      <c r="D26" s="39" t="s">
         <v>185</v>
       </c>
       <c r="F26" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D27" s="36" t="s">
+    <row r="27">
+      <c r="D27" s="39" t="s">
         <v>193</v>
       </c>
       <c r="F27" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D28" s="36"/>
+    <row r="28">
+      <c r="D28" s="39"/>
       <c r="F28" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D29" s="36"/>
+    <row r="29">
+      <c r="D29" s="39"/>
       <c r="F29" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D30" s="36"/>
+    <row r="30">
+      <c r="D30" s="39"/>
       <c r="F30" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D31" s="36"/>
+    <row r="31">
+      <c r="D31" s="39"/>
       <c r="F31" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D32" s="36"/>
+    <row r="32">
+      <c r="D32" s="39"/>
       <c r="F32" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D33" s="36"/>
+    <row r="33">
+      <c r="D33" s="39"/>
       <c r="F33" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D34" s="36"/>
+    <row r="34">
+      <c r="D34" s="39"/>
       <c r="F34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D35" s="36"/>
+    <row r="35">
+      <c r="D35" s="39"/>
       <c r="F35" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D36" s="36"/>
+    <row r="36">
+      <c r="D36" s="39"/>
       <c r="F36" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="37"/>
+    <row r="37" ht="15">
+      <c r="D37" s="40"/>
       <c r="F37" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="38">
       <c r="F38" t="s">
         <v>284</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sort="0"/>
+  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="0" selectUnlockedCells="0" sheet="0" sort="0"/>
   <mergeCells count="1">
     <mergeCell ref="B2:F2"/>
   </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>